--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4359203.777275437</v>
+        <v>4352186.762383725</v>
       </c>
     </row>
     <row r="7">
@@ -664,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.7627700121621</v>
       </c>
       <c r="E2" t="n">
-        <v>104.662553068615</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>52.10844059186255</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>33.80998328326113</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>399.9397899192303</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>10.19412901833867</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>14.46389722690827</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>54.70191565295202</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>195.2984409364007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>6.283679164004356</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>59.72683757586862</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>140.5010014379152</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896907</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274067</v>
+        <v>81.77913505274083</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385018</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>94.34577389951833</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>122.9684277897099</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710083</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274066</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>117.3577251883943</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1846,10 +1846,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113175</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>21.86696197154526</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>181.7328967428936</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.1321190611414</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>161.4623682497386</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952497999</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>90.335729857666</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>78.42428396556384</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>94.16481274941266</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>58.16357371561436</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>101.1622798656275</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3723,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.1852450404956</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>57.64843562452423</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4188,13 +4188,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V46" t="n">
-        <v>203.6602223743279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1469.273141255051</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.273141255051</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1469.273141255051</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
         <v>1363.553390680693</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1859.412473230863</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1859.412473230863</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1469.273141255051</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,13 +4412,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>479.6890627586768</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1579.049931616194</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>938.5832635662723</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2686.851990999699</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2355.789103656128</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2355.789103656128</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2355.789103656128</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1965.649771680316</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4667,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>154.8539665087372</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1328.4755035807</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C8" t="n">
-        <v>959.5129866402885</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548717</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548717</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548717</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548717</v>
+        <v>2690.801940347511</v>
       </c>
       <c r="W8" t="n">
-        <v>2289.351746278603</v>
+        <v>2338.033285077397</v>
       </c>
       <c r="X8" t="n">
-        <v>1915.885988017523</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y8" t="n">
-        <v>1525.746656041711</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641982</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598701</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>513.8405610245976</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5020,46 +5020,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5071,19 +5071,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>693.7762810288177</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="C13" t="n">
-        <v>524.8400981009108</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>524.8400981009108</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185177</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>914.5688601723479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>914.5688601723479</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>914.5688601723479</v>
+        <v>1374.705737436983</v>
       </c>
       <c r="Y13" t="n">
-        <v>693.7762810288177</v>
+        <v>1153.913158293453</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5296,7 +5296,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766202</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.599915964471</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>646.6490309742558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>477.7128480463489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>477.7128480463489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>477.7128480463489</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>874.6385818722731</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X16" t="n">
-        <v>646.6490309742558</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>646.6490309742558</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5497,22 +5497,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
@@ -5527,7 +5527,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5597,19 +5597,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1026.505047571597</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1333.825180851558</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.687808515591</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>266.1532743881928</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1004.352574466701</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1004.352574466701</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>714.9354044297402</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X19" t="n">
-        <v>486.9458535317228</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y19" t="n">
-        <v>266.1532743881928</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="20">
@@ -5740,22 +5740,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3802.012779407237</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4131.875407071269</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557902</v>
+        <v>1124.545030325236</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557902</v>
+        <v>835.416391538794</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352015</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150548</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170374</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028576</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>721.5398184181047</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1028.859951698066</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1833.271529962217</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4347.940519017357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>4179.00433608945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>4179.00433608945</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>4031.091242507056</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3884.201295009146</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>4347.940519017357</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>4347.940519017357</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>4347.940519017357</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>4347.940519017357</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6217,61 +6217,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823803</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.28419175141</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515099</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.70982261913</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>921.193690363625</v>
       </c>
       <c r="M27" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1908.095276920732</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.810590821615</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4074.755310959157</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C28" t="n">
-        <v>4074.755310959157</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E28" t="n">
-        <v>3924.638671546821</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F28" t="n">
-        <v>3777.748724048911</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G28" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4769.606361036851</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>4545.820945826357</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>4545.820945826357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>4545.820945826357</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>4256.403775789397</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4256.403775789397</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y28" t="n">
-        <v>4256.403775789397</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6448,67 +6448,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L30" t="n">
-        <v>1026.505047571597</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M30" t="n">
-        <v>1333.825180851558</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.687808515591</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3950.441081609186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>3950.441081609186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>3800.32444219685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>3800.32444219685</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4749.779469576119</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>4749.779469576119</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>4460.650830789677</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>4460.650830789677</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>4171.233660752716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>4171.233660752716</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>3950.441081609186</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,43 +6682,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2649.889045452863</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>2896.654173359327</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3203.974306639288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>4008.385884903439</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698578</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>964.135741824786</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>675.0071030383442</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>420.3226148324574</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>623.2354609838692</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C37" t="n">
-        <v>454.2992780559623</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>454.2992780559623</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E37" t="n">
-        <v>306.3861844735692</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273993</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>844.0280401273993</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>844.0280401273993</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>623.2354609838692</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7162,13 +7162,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4024.317877753549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>4024.317877753549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>4024.317877753549</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3876.404784171156</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3729.514836673246</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3561.339514993066</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4749.779469576118</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4460.650830789676</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4205.966342583789</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4205.966342583789</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4205.966342583789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4205.966342583789</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,34 +7396,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7493,22 +7493,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>712.8170085027681</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.21084526296</v>
+        <v>1440.685527502827</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.21084526296</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.21084526296</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>1075.21084526296</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>854.4182661194303</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7657,16 +7657,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.683698656582</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1433.546326320615</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>394.223678370532</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
         <v>97.21709146028584</v>
@@ -7836,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1093.27886413575</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>803.861694098789</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>575.8721432007717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360591</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>96.03744927814699</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>127.6461250100647</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9257,16 +9257,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>182.0340742867944</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,19 +9488,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>158.8724419039323</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445217</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>188.8856946302394</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720754</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>134.4977453535108</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10205,13 +10205,13 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>73.64859338270662</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10439,19 +10439,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>73.53204524669911</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>15.83804904622843</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>283.6093329825491</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>157.7918694243097</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>102.7412275993273</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>28.06332283453698</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>104.5044556556838</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0.483353957070932</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>48.84084321165255</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>5.031200213638954</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>107.5850801259373</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24843,22 +24843,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>66.9967640573674</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>90.96703739368829</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>87.25747430731688</v>
+        <v>29.89407122271365</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,16 +25557,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>47.75154850190863</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>39.6467351414417</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25836,22 +25836,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>163.899125433865</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
@@ -26076,13 +26076,13 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V46" t="n">
-        <v>48.47742094950013</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
     <row r="9">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>600801.4655374265</v>
+        <v>600801.4655374266</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.769864283</v>
+        <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>782058.1194754175</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="H2" t="n">
         <v>782058.1194754178</v>
       </c>
       <c r="I2" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="J2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="K2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="L2" t="n">
+        <v>782058.1194754173</v>
+      </c>
+      <c r="M2" t="n">
+        <v>782058.1194754178</v>
+      </c>
+      <c r="N2" t="n">
         <v>782058.1194754175</v>
       </c>
-      <c r="K2" t="n">
-        <v>782058.1194754175</v>
-      </c>
-      <c r="L2" t="n">
-        <v>782058.119475418</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>782058.1194754177</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>782058.1194754177</v>
-      </c>
-      <c r="O2" t="n">
-        <v>782058.1194754178</v>
-      </c>
-      <c r="P2" t="n">
-        <v>782058.1194754178</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,22 +26383,22 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>2.567329602243263e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925927</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,16 +26423,16 @@
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512225</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26441,10 +26441,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143914</v>
+        <v>15045.66962143906</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
@@ -26475,16 +26475,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,22 +26493,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8560.14566489312</v>
+        <v>-8560.145664893265</v>
       </c>
       <c r="C6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496509</v>
       </c>
       <c r="D6" t="n">
-        <v>581407.733549651</v>
+        <v>581407.7335496511</v>
       </c>
       <c r="E6" t="n">
-        <v>149865.0874283658</v>
+        <v>148890.4961686441</v>
       </c>
       <c r="F6" t="n">
-        <v>675025.1239052619</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="G6" t="n">
-        <v>675025.1239052623</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="H6" t="n">
-        <v>675025.1239052622</v>
+        <v>674050.5326455404</v>
       </c>
       <c r="I6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="J6" t="n">
-        <v>498601.9047126691</v>
+        <v>497627.3134529474</v>
       </c>
       <c r="K6" t="n">
-        <v>675025.1239052617</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="L6" t="n">
-        <v>675025.1239052623</v>
+        <v>674050.53264554</v>
       </c>
       <c r="M6" t="n">
-        <v>540224.108671425</v>
+        <v>539249.5174117034</v>
       </c>
       <c r="N6" t="n">
-        <v>675025.123905262</v>
+        <v>674050.5326455402</v>
       </c>
       <c r="O6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455403</v>
       </c>
       <c r="P6" t="n">
-        <v>675025.1239052621</v>
+        <v>674050.5326455403</v>
       </c>
     </row>
   </sheetData>
@@ -26694,13 +26694,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26767,13 +26767,13 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26925,13 +26925,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27162,13 +27162,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>112.9202716085209</v>
       </c>
       <c r="E2" t="n">
-        <v>277.2678170036468</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>96.50703242634981</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>191.2251221748231</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13.84438010156464</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0300384899506</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27779,19 +27779,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>141.7069916148869</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>171.0077397360851</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>187.4354007270799</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>48.19472341080734</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831823</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>85.2086539511219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28329,25 +28329,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>-7.394985773160066e-13</v>
       </c>
       <c r="D14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,10 +28377,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28389,13 +28389,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28566,19 +28566,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>7.579122514774402e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29328,10 +29328,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35175,25 +35175,25 @@
         <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047513</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>406.4618263286133</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>639.309310412009</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>215.6591577951388</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>464.3977765279026</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>441.2361441450404</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>438.1433995862639</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415095</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
@@ -36685,19 +36685,19 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>416.8614475946189</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
@@ -36925,13 +36925,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>356.0122956238148</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>355.8957474878073</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>326.2624260966948</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>594.0337100330154</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4352186.762383725</v>
+        <v>4357126.025232757</v>
       </c>
     </row>
     <row r="7">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.283679164004356</v>
+        <v>6.283679164003906</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>59.72683757586862</v>
+        <v>14.5268783873314</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274083</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>24.29718497126802</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>122.9684277897099</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710083</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498025</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>21.86696197154526</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>62.84391799868235</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>172.7067178467367</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>190.7955476484032</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>235.2707607354173</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>131.5416277745649</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>57.64843562452423</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>29.18937547121085</v>
       </c>
       <c r="U46" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4400,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4795,22 +4795,22 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2690.801940347511</v>
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>559.1928012785276</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>409.0761618661918</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>261.1630682837987</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>114.2731207858883</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5029,37 +5029,37 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155889</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5071,7 +5071,7 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5126,16 +5126,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>972.2646934632137</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>121.7597025423748</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X13" t="n">
-        <v>1374.705737436983</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y13" t="n">
-        <v>1153.913158293453</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,40 +5290,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110083</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M15" t="n">
-        <v>1595.645765494011</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1925.508393158044</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2205.048458376741</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5527,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.675512255521</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619851</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.4856756861153</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C19" t="n">
-        <v>699.5494927582084</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D19" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>946.3889166378392</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>656.9717466008786</v>
       </c>
       <c r="X19" t="n">
-        <v>1270.926719659885</v>
+        <v>428.9821957028613</v>
       </c>
       <c r="Y19" t="n">
-        <v>1050.134140516355</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1124.545030325236</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805468</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2358.217138262064</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,34 +6214,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823803</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.28419175141</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899128</v>
@@ -6250,13 +6250,13 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2358.217138262064</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6788,7 +6788,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6937,28 +6937,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7077,10 +7077,10 @@
         <v>213.9110074201016</v>
       </c>
       <c r="D37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
         <v>97.21709146028584</v>
@@ -7156,28 +7156,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7256,22 +7256,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P39" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,40 +7390,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
@@ -7435,7 +7435,7 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
-        <v>2358.217138262064</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>524.8904636260085</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>376.9773700436153</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>230.087422545705</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.685527502827</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>675.0071030383442</v>
       </c>
     </row>
     <row r="44">
@@ -7657,16 +7657,16 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7830,13 +7830,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
         <v>869.3083006011506</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8774,19 +8774,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.0374492781462</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>234.411650950316</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>423.3376789165111</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.0237016735871</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720754</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298014</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>180.0237016735871</v>
+        <v>180.0237016735866</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>180.0237016735871</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>180.0237016735871</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>87.16935584025396</v>
       </c>
       <c r="Q39" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>180.0237016735871</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>34.78428385445217</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>124.3182880469443</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,25 +23466,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>102.7412275993273</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>124.5670006750239</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>189.2937253251457</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>48.84084321165255</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>61.34209567542482</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>50.96659166316002</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>90.96703739368829</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,13 +25317,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799476</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>29.89407122271365</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>34.95194068881267</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>163.899125433865</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="U46" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26319,40 +26319,40 @@
         <v>821041.7698642829</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.769864283</v>
       </c>
       <c r="E2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="F2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="G2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754177</v>
       </c>
       <c r="H2" t="n">
+        <v>782058.1194754177</v>
+      </c>
+      <c r="I2" t="n">
         <v>782058.1194754178</v>
       </c>
-      <c r="I2" t="n">
-        <v>782058.1194754175</v>
-      </c>
       <c r="J2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="K2" t="n">
         <v>782058.1194754177</v>
       </c>
       <c r="L2" t="n">
-        <v>782058.1194754173</v>
+        <v>782058.1194754178</v>
       </c>
       <c r="M2" t="n">
-        <v>782058.1194754178</v>
+        <v>782058.1194754175</v>
       </c>
       <c r="N2" t="n">
-        <v>782058.1194754175</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="O2" t="n">
-        <v>782058.1194754177</v>
+        <v>782058.1194754179</v>
       </c>
       <c r="P2" t="n">
         <v>782058.1194754177</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.28238008105184e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>5.148837678054155e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,19 +26429,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143901</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143905</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143906</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="K4" t="n">
         <v>15045.6696214391</v>
@@ -26475,37 +26475,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26527,43 +26527,43 @@
         <v>581407.7335496509</v>
       </c>
       <c r="D6" t="n">
-        <v>581407.7335496511</v>
+        <v>581407.733549651</v>
       </c>
       <c r="E6" t="n">
-        <v>148890.4961686441</v>
+        <v>149767.6283023937</v>
       </c>
       <c r="F6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.66477929</v>
       </c>
       <c r="G6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="H6" t="n">
-        <v>674050.5326455404</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="I6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.66477929</v>
       </c>
       <c r="J6" t="n">
-        <v>497627.3134529474</v>
+        <v>498504.4455866971</v>
       </c>
       <c r="K6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792899</v>
       </c>
       <c r="L6" t="n">
-        <v>674050.53264554</v>
+        <v>674927.66477929</v>
       </c>
       <c r="M6" t="n">
-        <v>539249.5174117034</v>
+        <v>540126.6495454526</v>
       </c>
       <c r="N6" t="n">
-        <v>674050.5326455402</v>
+        <v>674927.6647792901</v>
       </c>
       <c r="O6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792901</v>
       </c>
       <c r="P6" t="n">
-        <v>674050.5326455403</v>
+        <v>674927.6647792899</v>
       </c>
     </row>
   </sheetData>
@@ -26712,10 +26712,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26743,37 +26743,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541003</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26813,7 +26813,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26925,7 +26925,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27162,7 +27162,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>48.19472341080734</v>
+        <v>48.1947234108078</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.5829646831823</v>
+        <v>152.7829238717195</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.394985773160066e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28380,13 +28380,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29328,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,19 +35494,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330529</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382552</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,10 +36454,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.0367344586612</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415095</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,10 +36691,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>268.0367344586612</v>
+        <v>268.0367344586608</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,13 +37156,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,13 +37393,13 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>294.2627707717787</v>
       </c>
       <c r="Q39" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504663</v>
@@ -37879,7 +37879,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>268.0367344586612</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
